--- a/app/Группы/BillsDebtByGroup.xlsx
+++ b/app/Группы/BillsDebtByGroup.xlsx
@@ -21,9 +21,6 @@
     <t>Должники в доме:</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${RD.chargesValues}" var ="charges"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>${charges.lc_regto}</t>
   </si>
   <si>
-    <t>${charges.Debt}</t>
-  </si>
-  <si>
     <t>Итого должников:</t>
   </si>
   <si>
@@ -54,10 +48,16 @@
     <t>${RD.count}</t>
   </si>
   <si>
-    <t>${RD.sum}</t>
-  </si>
-  <si>
     <t xml:space="preserve">${RD.grp_name} на ${RD.date} </t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${RD.debtValues}" var ="charges"&gt;</t>
+  </si>
+  <si>
+    <t>${RD.sum} руб.</t>
+  </si>
+  <si>
+    <t>${charges.Debt} руб.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,52 +416,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
